--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/quru.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/quru.xlsx
@@ -800,7 +800,7 @@
     <t xml:space="preserve">누구야, 이런 시간에?</t>
   </si>
   <si>
-    <t xml:space="preserve">여기가…</t>
+    <t xml:space="preserve">이곳인가…</t>
   </si>
   <si>
     <t xml:space="preserve">모큐…?</t>
@@ -810,7 +810,7 @@
   </si>
   <si>
     <t xml:space="preserve">이 남자… 후드 밑의 기분 나쁜 눈, 인간이 아니야… 이형…
-코르곤, 그 녀석한테서 떨어져. 모두를 불러 올게.</t>
+코르곤, 그 녀석한테서 떨어져. 가서 사람들을 불러와.</t>
   </si>
   <si>
     <t xml:space="preserve">크크크… 이형인가.</t>
@@ -883,7 +883,7 @@
     <t xml:space="preserve">모큐…</t>
   </si>
   <si>
-    <t xml:space="preserve">케틀과 만나고 나서부터… 아니, 로이텔과 모두와 함께 살게 되면서부터, 악몽을 꾸는 일도 적어졌어. 내가 누구인지 생각할 필요도 없어졌고.</t>
+    <t xml:space="preserve">케틀과 만나고 나서부터… 아니, 로이텔이랑 모두와 함께 살게 되면서부터, 악몽을 꾸는 일도 적어졌어. 내가 누구인지 생각할 필요도 없어졌고.</t>
   </si>
   <si>
     <t xml:space="preserve">하지만…</t>
@@ -917,7 +917,7 @@
   </si>
   <si>
     <t xml:space="preserve">크크크… 그랬었나?
-그런 저주를 봤던 것은 나 또한 처음이었다. 네 눈동자에 깃든 붉은 빛은, 과연 증오의 불길일까, 아니면 황홀한 빛일까.
+그런 저주를 봤던 것은 나 또한 처음이었다. 그대의 눈동자에 깃든 붉은 빛은, 과연 증오의 불길일까, 아니면 황홀한 빛일까.
 하룻밤 사이에 그대의 마을은…</t>
   </si>
   <si>
@@ -926,7 +926,7 @@
   <si>
     <t xml:space="preserve">그 목소리는… 아니… 나도 모르게, 옛날 일을…
 그대의 힘… 그래, 우리는 모두, 오래된 핏줄을 이어받은 그대의 존재를 주의 깊게 지켜보고 있던 것이다.
-소녀여, 그 날, 「케틀」이 그대를 구한 게 우연이라고 생각하나?</t>
+소녀여, 그 날 「케틀」이 그대를 구한 게 우연이라고 생각하나?</t>
   </si>
   <si>
     <t xml:space="preserve">날 내버려 둬. 이제 네 이야기는 듣고 싶지 않아.</t>
